--- a/auto/new_data/5_經濟數據_india.xlsx
+++ b/auto/new_data/5_經濟數據_india.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>84.08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79389</t>
+          <t>79942</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>

--- a/auto/new_data/5_經濟數據_india.xlsx
+++ b/auto/new_data/5_經濟數據_india.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>84.08</t>
+          <t>84.39</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>79389</t>
+          <t>79486</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79942</t>
+          <t>79542</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>688270</t>
+          <t>682130</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>690430</t>
+          <t>684810</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2754,12 +2754,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>12.8</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>776110</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>706045</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>600496</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3209,7 +3209,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jul/24</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Jul/24</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3528,12 +3528,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1023406</t>
+          <t>1636974</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>834197</t>
+          <t>1217178</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3562,12 +3562,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1300351</t>
+          <t>2111494</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>969909</t>
+          <t>1652354</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4094,12 +4094,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>11.8</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>11.5</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12300</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>4.09</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>3.81</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Dec/1</t>
+          <t>Dec/17</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_india.xlsx
+++ b/auto/new_data/5_經濟數據_india.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>84.39</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>79486</t>
+          <t>77691</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79542</t>
+          <t>78675</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -654,12 +654,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>5.49</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1938,12 +1938,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>5.49</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.65</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1972,12 +1972,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>194</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>193</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>9.24</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>5.66</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2448,12 +2448,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>0.6</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2652,12 +2652,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>257272</t>
+          <t>262159</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>255898</t>
+          <t>262940</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>605</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>613</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3273,7 +3273,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Jul/24</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>-0.1</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>4.7</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3924,12 +3924,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>4.4</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4230,12 +4230,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>345107</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>315689</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>308779</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_india.xlsx
+++ b/auto/new_data/5_經濟數據_india.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>84.42</t>
+          <t>84.39</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.43</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>77691</t>
+          <t>77578</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>78675</t>
+          <t>77339</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>7.8</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>-27.1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>-20.8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-29.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>7.8</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>8.5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2040,12 +2040,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>155</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>154</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2074,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>1.84</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.31</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>9.47</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>3.26</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>-5.79</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>-4.05</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>-0.67</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2312,12 +2312,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.22</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2652,12 +2652,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>264769</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>262159</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>262940</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>675650</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>682130</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>684810</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2754,12 +2754,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>11.5</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>12.8</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2856,12 +2856,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>-27.1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>-20.8</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>-29.7</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2958,12 +2958,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>34.58</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>34.71</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2992,12 +2992,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>55.36</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>64.36</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3890,12 +3890,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4094,12 +4094,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>11.7</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>11.8</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4128,12 +4128,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>128818</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>132424</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>134936</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4162,12 +4162,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>-4.3</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>3.8</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_india.xlsx
+++ b/auto/new_data/5_經濟數據_india.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>84.39</t>
+          <t>84.44</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>77075</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>77578</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>77339</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>36529</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>38609</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>36201</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_india.xlsx
+++ b/auto/new_data/5_經濟數據_india.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>85.31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.38</t>
+          <t>85.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>77075</t>
+          <t>78473</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77578</t>
+          <t>78540</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>6.7</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>6.21</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>-37.84</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>-27.1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-20.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>94.7</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>6.7</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>15130</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>15206</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>15702</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>50.8</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>50.2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>46.8</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>46.9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1938,12 +1938,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>6.21</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>5.49</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1972,12 +1972,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>197</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>194</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2074,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>2.36</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.84</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>10.87</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>9.24</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>11.59</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>9.47</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>-5.83</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>-5.79</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>-4.05</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2312,12 +2312,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>1.5</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>183</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2414,12 +2414,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>10.1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2448,12 +2448,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>1.34</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2584,12 +2584,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>61274</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>60850</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>61047</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2618,12 +2618,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>63264</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>63110</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>63307</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>675650</t>
+          <t>652870</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>682130</t>
+          <t>654860</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2754,12 +2754,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>47384</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>46609</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>46685</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2856,12 +2856,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>-37.84</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>-27.1</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>-20.8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2958,12 +2958,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>39.2</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>34.58</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2992,12 +2992,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>69.95</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>66.34</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>55.36</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3128,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>5984</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>8614</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>5217</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>636277</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>776110</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>706045</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3209,7 +3209,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Jul/24</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>841</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>822</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>603</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>605</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3273,7 +3273,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jul/24</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3460,12 +3460,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>-7508240</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>-4745200</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>-435180</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>4149</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>5123</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3528,12 +3528,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>1723074</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>1636974</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>1217178</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3562,12 +3562,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>2473898</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>2111494</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>1652354</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -3822,12 +3822,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>3.1</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>-0.1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3890,12 +3890,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>0.69</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>-2.48</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3924,12 +3924,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>3.9</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3958,12 +3958,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>477</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>544</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4060,12 +4060,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -4094,12 +4094,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4128,12 +4128,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>134170</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>128818</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>132424</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4162,12 +4162,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>-4.3</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>11700</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>12300</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4230,12 +4230,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>300459</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>345107</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>315689</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4264,12 +4264,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>94.7</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>93.9</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4298,12 +4298,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>24823</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>24568</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>24972</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4413,7 +4413,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4430,12 +4430,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>42.7</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>42.3</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Mar/24</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4498,12 +4498,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>-1.8</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4566,12 +4566,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
